--- a/biology/Zoologie/Gerontoformica/Gerontoformica.xlsx
+++ b/biology/Zoologie/Gerontoformica/Gerontoformica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sphecomyrmodes
 Gerontoformica est un genre fossile de fourmis du groupe-souche. Le genre contient treize espèces connues, décrites entre 2004 et 2016 à partir de fossiles du Crétacé supérieur trouvés en Europe et en Asie. Certaines de ces espèces ont auparavant été placées dans le genre synonyme Sphecomyrmodes.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database                   (5 septembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database                   (5 septembre 2023) :
 †Gerontoformica contega Barden &amp; Grimaldi, 2014
 †Gerontoformica cretacica Nel &amp; Perrault, 2004 - espèce type
 †Gerontoformica gracilis Barden &amp; Grimaldi, 2014
@@ -556,13 +570,85 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Gerontoformica a été créé en 2004 par André Nel et Gérard H. Perrault (d)[2] dans une publication coécrite avec Vincent Perrichot (d) et Didier Néraudeau (d) et avec comme espèce type Gerontoformica cretacica[3].
-Synonyme
-Ce genre Gerontoformica a un synonyme †Sphecomyrmodes Engel &amp; Grimaldi (d) 2005[4][5].
-Étymologie
-Le nom générique, Gerontoformica, dérive du grec ancien γέρων, gérôn, « vieillard ; vieillesse », et fait référence à l'ancienneté de ces espèces[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Gerontoformica a été créé en 2004 par André Nel et Gérard H. Perrault (d) dans une publication coécrite avec Vincent Perrichot (d) et Didier Néraudeau (d) et avec comme espèce type Gerontoformica cretacica.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gerontoformica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gerontoformica</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre Gerontoformica a un synonyme †Sphecomyrmodes Engel &amp; Grimaldi (d) 2005.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gerontoformica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gerontoformica</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Gerontoformica, dérive du grec ancien γέρων, gérôn, « vieillard ; vieillesse », et fait référence à l'ancienneté de ces espèces.
 </t>
         </is>
       </c>
